--- a/rep_from_class.xlsx
+++ b/rep_from_class.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1130</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>867</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>821</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>856</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>678</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>4352</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
